--- a/log/锻炼记录.xlsx
+++ b/log/锻炼记录.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="体型变化记录" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="93">
   <si>
     <t>杠铃推举</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -283,6 +284,275 @@
   </si>
   <si>
     <t>25kg、20、20、20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胸围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腰围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>臀围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左臂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右臂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左大腿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右大腿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左小腿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右小腿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>98(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>98(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>32(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>32(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>57(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>58(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>37(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -290,7 +560,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -319,6 +589,14 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -411,12 +689,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -427,34 +731,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -738,7 +1022,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -773,123 +1057,123 @@
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="8">
-        <v>4</v>
-      </c>
-      <c r="F5" s="15" t="s">
+      <c r="E5" s="4">
+        <v>4</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B6" s="5"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="8" t="s">
+      <c r="B6" s="15"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="8">
-        <v>4</v>
-      </c>
-      <c r="F6" s="15">
+      <c r="E6" s="4">
+        <v>4</v>
+      </c>
+      <c r="F6" s="6">
         <v>8</v>
       </c>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B7" s="5"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="8" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="8">
-        <v>4</v>
-      </c>
-      <c r="F7" s="15">
+      <c r="E7" s="4">
+        <v>4</v>
+      </c>
+      <c r="F7" s="6">
         <v>10</v>
       </c>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B8" s="5"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="8" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="4">
         <v>3</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B9" s="5"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="8">
+      <c r="B9" s="15"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="4">
         <v>3</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B10" s="5"/>
-      <c r="C10" s="11" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="12">
-        <v>4</v>
-      </c>
-      <c r="F10" s="16">
+      <c r="E10" s="5">
+        <v>4</v>
+      </c>
+      <c r="F10" s="7">
         <v>12</v>
       </c>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B11" s="6"/>
+      <c r="B11" s="16"/>
       <c r="C11" s="13"/>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="12">
-        <v>4</v>
-      </c>
-      <c r="F11" s="16">
+      <c r="E11" s="5">
+        <v>4</v>
+      </c>
+      <c r="F11" s="7">
         <v>12</v>
       </c>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="4">
         <v>3</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="6" t="s">
         <v>45</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -897,15 +1181,15 @@
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B13" s="5"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="8" t="s">
+      <c r="B13" s="15"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="8">
-        <v>4</v>
-      </c>
-      <c r="F13" s="15">
+      <c r="E13" s="4">
+        <v>4</v>
+      </c>
+      <c r="F13" s="6">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
@@ -913,29 +1197,29 @@
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B14" s="5"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="8" t="s">
+      <c r="B14" s="15"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="8">
-        <v>4</v>
-      </c>
-      <c r="F14" s="15">
+      <c r="E14" s="4">
+        <v>4</v>
+      </c>
+      <c r="F14" s="6">
         <v>10</v>
       </c>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B15" s="5"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="8" t="s">
+      <c r="B15" s="15"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="8">
-        <v>4</v>
-      </c>
-      <c r="F15" s="15">
+      <c r="E15" s="4">
+        <v>4</v>
+      </c>
+      <c r="F15" s="6">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
@@ -943,65 +1227,65 @@
       </c>
     </row>
     <row r="16" spans="2:7" ht="24" x14ac:dyDescent="0.15">
-      <c r="B16" s="5"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="8" t="s">
+      <c r="B16" s="15"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="8">
-        <v>4</v>
-      </c>
-      <c r="F16" s="15">
+      <c r="E16" s="4">
+        <v>4</v>
+      </c>
+      <c r="F16" s="6">
         <v>12</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="G16" s="8" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B17" s="5"/>
-      <c r="C17" s="11" t="s">
+      <c r="B17" s="15"/>
+      <c r="C17" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="5">
         <v>3</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F17" s="7">
         <v>12</v>
       </c>
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B18" s="6"/>
+      <c r="B18" s="16"/>
       <c r="C18" s="13"/>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="5">
         <v>3</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="7">
         <v>12</v>
       </c>
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="8">
-        <v>4</v>
-      </c>
-      <c r="F19" s="15" t="s">
+      <c r="E19" s="4">
+        <v>4</v>
+      </c>
+      <c r="F19" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G19" s="2" t="s">
@@ -1009,43 +1293,43 @@
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B20" s="5"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="8" t="s">
+      <c r="B20" s="15"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="8">
-        <v>4</v>
-      </c>
-      <c r="F20" s="15">
+      <c r="E20" s="4">
+        <v>4</v>
+      </c>
+      <c r="F20" s="6">
         <v>10</v>
       </c>
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B21" s="5"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="8" t="s">
+      <c r="B21" s="15"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="8">
-        <v>4</v>
-      </c>
-      <c r="F21" s="15" t="s">
+      <c r="E21" s="4">
+        <v>4</v>
+      </c>
+      <c r="F21" s="6" t="s">
         <v>35</v>
       </c>
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B22" s="5"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="8" t="s">
+      <c r="B22" s="15"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="8">
-        <v>4</v>
-      </c>
-      <c r="F22" s="15">
+      <c r="E22" s="4">
+        <v>4</v>
+      </c>
+      <c r="F22" s="6">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
@@ -1053,15 +1337,15 @@
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B23" s="5"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="8" t="s">
+      <c r="B23" s="15"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E23" s="8">
-        <v>4</v>
-      </c>
-      <c r="F23" s="15">
+      <c r="E23" s="4">
+        <v>4</v>
+      </c>
+      <c r="F23" s="6">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
@@ -1069,15 +1353,15 @@
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B24" s="5"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="8" t="s">
+      <c r="B24" s="15"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E24" s="8">
-        <v>4</v>
-      </c>
-      <c r="F24" s="15">
+      <c r="E24" s="4">
+        <v>4</v>
+      </c>
+      <c r="F24" s="6">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
@@ -1085,45 +1369,45 @@
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B25" s="5"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="8" t="s">
+      <c r="B25" s="15"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="8">
-        <v>4</v>
-      </c>
-      <c r="F25" s="15">
+      <c r="E25" s="4">
+        <v>4</v>
+      </c>
+      <c r="F25" s="6">
         <v>12</v>
       </c>
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B26" s="5"/>
-      <c r="C26" s="11" t="s">
+      <c r="B26" s="15"/>
+      <c r="C26" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E26" s="5">
         <v>3</v>
       </c>
-      <c r="F26" s="16">
+      <c r="F26" s="7">
         <v>10</v>
       </c>
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B27" s="5"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="12" t="s">
+      <c r="B27" s="15"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E27" s="5">
         <v>3</v>
       </c>
-      <c r="F27" s="16">
+      <c r="F27" s="7">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
@@ -1131,15 +1415,15 @@
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B28" s="5"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="12" t="s">
+      <c r="B28" s="15"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E28" s="5">
         <v>3</v>
       </c>
-      <c r="F28" s="16">
+      <c r="F28" s="7">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
@@ -1147,47 +1431,47 @@
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B29" s="6"/>
+      <c r="B29" s="16"/>
       <c r="C29" s="13"/>
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E29" s="12">
+      <c r="E29" s="5">
         <v>3</v>
       </c>
-      <c r="F29" s="16">
+      <c r="F29" s="7">
         <v>10</v>
       </c>
       <c r="G29" s="2"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E30" s="4">
         <v>6</v>
       </c>
-      <c r="F30" s="15" t="s">
+      <c r="F30" s="6" t="s">
         <v>48</v>
       </c>
       <c r="G30" s="2"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B31" s="5"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="8" t="s">
+      <c r="B31" s="15"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31" s="4">
         <v>6</v>
       </c>
-      <c r="F31" s="15">
+      <c r="F31" s="6">
         <v>8</v>
       </c>
       <c r="G31" s="2" t="s">
@@ -1195,29 +1479,29 @@
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B32" s="5"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="8" t="s">
+      <c r="B32" s="15"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E32" s="8">
-        <v>4</v>
-      </c>
-      <c r="F32" s="15">
+      <c r="E32" s="4">
+        <v>4</v>
+      </c>
+      <c r="F32" s="6">
         <v>10</v>
       </c>
       <c r="G32" s="2"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B33" s="5"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="8" t="s">
+      <c r="B33" s="15"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E33" s="8">
-        <v>4</v>
-      </c>
-      <c r="F33" s="15">
+      <c r="E33" s="4">
+        <v>4</v>
+      </c>
+      <c r="F33" s="6">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
@@ -1225,31 +1509,31 @@
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B34" s="5"/>
-      <c r="C34" s="11" t="s">
+      <c r="B34" s="15"/>
+      <c r="C34" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E34" s="12">
-        <v>4</v>
-      </c>
-      <c r="F34" s="16" t="s">
+      <c r="E34" s="5">
+        <v>4</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>44</v>
       </c>
       <c r="G34" s="2"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B35" s="6"/>
+      <c r="B35" s="16"/>
       <c r="C35" s="13"/>
-      <c r="D35" s="12" t="s">
+      <c r="D35" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E35" s="12">
-        <v>4</v>
-      </c>
-      <c r="F35" s="16" t="s">
+      <c r="E35" s="5">
+        <v>4</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>44</v>
       </c>
       <c r="G35" s="2"/>
@@ -1273,4 +1557,226 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4:M13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="8.88671875" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C4" s="19"/>
+      <c r="D4" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="M4" s="20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C5" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="21">
+        <v>96</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="21">
+        <v>94</v>
+      </c>
+      <c r="G5" s="21">
+        <v>31</v>
+      </c>
+      <c r="H5" s="21">
+        <v>31</v>
+      </c>
+      <c r="I5" s="21">
+        <v>56</v>
+      </c>
+      <c r="J5" s="21">
+        <v>56</v>
+      </c>
+      <c r="K5" s="21">
+        <v>36</v>
+      </c>
+      <c r="L5" s="21">
+        <v>37</v>
+      </c>
+      <c r="M5" s="21"/>
+    </row>
+    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C6" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="21">
+        <v>90</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="K6" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="L6" s="21">
+        <v>37</v>
+      </c>
+      <c r="M6" s="21"/>
+    </row>
+    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C7" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+    </row>
+    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C8" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+    </row>
+    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C9" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+    </row>
+    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C10" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+    </row>
+    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C11" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+    </row>
+    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C12" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+    </row>
+    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C13" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>